--- a/biology/Zoologie/Colymbetes/Colymbetes.xlsx
+++ b/biology/Zoologie/Colymbetes/Colymbetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colymbetes est un genre d'insectes de l'ordre des coléoptères, de la famille des dytiscidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces rencontrées en Amérique du Nord</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Colymbetes crotchi Sharp 1882
 Colymbetes dahuricus Aubé 1836
@@ -549,7 +563,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Colymbetes dolabratus (Paykull 1798)
 Colymbetes fuscus (Linnaeus 1758)
@@ -583,9 +599,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (31 août 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (31 août 2014) :
 Colymbetes dahuricus
 Colymbetes densus
 Colymbetes dolabratus
@@ -607,7 +625,7 @@
 Colymbetes substrigatus
 Colymbetes tschitscherini
 Colymbetes vagans
-Selon ITIS      (31 août 2014)[2] :
+Selon ITIS      (31 août 2014) :
 Colymbetes dahuricus Aubé, 1837
 Colymbetes densus LeConte, 1859
 Colymbetes dolabratus (Paykull, 1798)
